--- a/results/Output_22_2_2018.xlsx
+++ b/results/Output_22_2_2018.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2842,16 +2838,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2872,16 +2868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2902,16 +2898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3199,7 +3195,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
